--- a/medicine/Enfance/Mission_pour_Thulé/Mission_pour_Thulé.xlsx
+++ b/medicine/Enfance/Mission_pour_Thulé/Mission_pour_Thulé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mission_pour_Thul%C3%A9</t>
+          <t>Mission_pour_Thulé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Mission pour Thulé est le 16e roman de la série Bob Morane, écrit par Henri Vernes et publié en 1956 par les éditions Gérard et Cie dans la collection Marabout junior (n°78).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mission_pour_Thul%C3%A9</t>
+          <t>Mission_pour_Thulé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Bob Morane ;
 James Lore : propriétaire d'un ranch à Paradise Rocks (Arizona), complice de Roman Orgonetz ;
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mission_pour_Thul%C3%A9</t>
+          <t>Mission_pour_Thulé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +565,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Bob Morane se promène en solitaire dans le désert de l'Arizona et loue une chambre d'hôtel dans un patelin de l'endroit, Paradise Rocks. Durant la nuit, il est assommé et dépouillé de tout son argent. Un rancher local, James Lore, propose de l'engager comme pilote d'un de ses Dakotas (un Douglas C-47 Skytrain) pour qu'il puisse quelque peu se renflouer. Il doit transporter de l'équipement d'équitation à San Francisco. Peu avant son départ, il est attaqué sur une route du désert par trois malfrats qui menacent de s'en prendre à lui s'il devient pilote pour Lore. Lors d'une nouvelle rencontre avec celui-ci, le rancher s'explique et met la mésaventure sur le compte d'une rivalité avec des concurrents de l'endroit. 
 À San Francisco, le navigateur de son avion, Ted Harris, lui annonce qu'ils doivent transporter de l'équipement sportif à la base militaire américaine de Thulé, au Groenland. Morane se méfie d'autant plus qu'un homme qui s'est présenté sous le nom d'Arthur Greenstreet lui a proposé de l'argent afin qu'il refuse cette mission. Après mûre réflexion, Morane décide tout de même d'accepter.
